--- a/ProjectDocs/Artifacts/SymCheck User Stories.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck User Stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3A7A0DA1-D117-41C2-AAFB-E4385C23E981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E0C561C-F3E9-8140-9EFD-AD8EB0CB1B88}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{3A7A0DA1-D117-41C2-AAFB-E4385C23E981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A3BB5B89-5467-FD49-9EBF-BC5C61A61C58}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26260" windowHeight="20200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Created on:</t>
   </si>
@@ -58,15 +58,9 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Labels</t>
-  </si>
-  <si>
     <t>Story Points</t>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>HID-44</t>
   </si>
   <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>As a patient, I want to know that I have reached the correct page to use the SYMCheck application so that I can be sure I am uploading my picture to the correct place and receiving the recommendations/care that I desire</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
   </si>
   <si>
     <t>As a patient, I want to access a FAQ page so that I can see answers to common questions that I may have</t>
-  </si>
-  <si>
-    <t>FAQPage</t>
   </si>
   <si>
     <t>HID-79</t>
@@ -248,7 +236,7 @@
 </t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Label</t>
   </si>
 </sst>
 </file>
@@ -333,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -372,6 +360,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -379,26 +380,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -411,7 +401,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1044,588 +1043,472 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="101.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="4" max="4" width="19" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44244.54791666667</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44244.539583333331</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44244.51458333333</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44224.462500000001</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44222.754166666666</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44244.734027777777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44152.900694444441</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44152.9</v>
-      </c>
-      <c r="G9" s="6">
-        <v>44244.816666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44152.869444444441</v>
-      </c>
-      <c r="G10" s="6">
-        <v>44244.788194444445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6">
-        <v>44104.972916666666</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44237.677777777775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44104.972916666666</v>
-      </c>
-      <c r="G12" s="6">
-        <v>44237.677083333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44104.972222222219</v>
-      </c>
-      <c r="G13" s="6">
-        <v>44237.67291666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6">
-        <v>44104.972222222219</v>
-      </c>
-      <c r="G14" s="6">
-        <v>44237.672222222223</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6">
-        <v>44104.97152777778</v>
-      </c>
-      <c r="G15" s="6">
-        <v>44237.672222222223</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6">
-        <v>44104.970833333333</v>
-      </c>
-      <c r="G16" s="6">
-        <v>44237.671527777777</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="6">
-        <v>44104.970833333333</v>
-      </c>
-      <c r="G17" s="6">
-        <v>44237.67083333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6">
-        <v>44104.970833333333</v>
-      </c>
-      <c r="G18" s="6">
-        <v>44237.669444444444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6">
-        <v>44104.970138888886</v>
-      </c>
-      <c r="G19" s="6">
-        <v>44237.669444444444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="6">
-        <v>44104.970138888886</v>
-      </c>
-      <c r="G20" s="6">
-        <v>44237.668749999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="6">
-        <v>44104.969444444447</v>
-      </c>
-      <c r="G21" s="6">
-        <v>44237.667361111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="6">
-        <v>44104.969444444447</v>
-      </c>
-      <c r="G22" s="6">
-        <v>44237.665277777778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6">
-        <v>44104.96875</v>
-      </c>
-      <c r="G23" s="6">
-        <v>44237.663888888892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6">
-        <v>44104.945138888892</v>
-      </c>
-      <c r="G24" s="6">
-        <v>44230.452777777777</v>
-      </c>
+      <c r="G24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="47" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1642,12 +1525,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -1858,6 +1735,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5F777E-EE95-443C-8E62-C36D3E9D5A89}">
   <ds:schemaRefs>
@@ -1867,23 +1750,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A447AC4E-5B64-4167-A9D1-6AFD0EF834D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{578ADD93-9E7C-4EA6-976E-73D55245F13C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1900,4 +1766,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A447AC4E-5B64-4167-A9D1-6AFD0EF834D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>